--- a/Assets/BackLog/仕様書.xlsx
+++ b/Assets/BackLog/仕様書.xlsx
@@ -5,23 +5,25 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\チーム制作\大賞向け企画\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\チーム制作\大賞向け企画\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="プレイヤー" sheetId="4" r:id="rId1"/>
-    <sheet name="タイトル" sheetId="6" r:id="rId2"/>
-    <sheet name="ステージセレクト" sheetId="5" r:id="rId3"/>
-    <sheet name="リザルト" sheetId="14" r:id="rId4"/>
-    <sheet name="ゲームオーバー" sheetId="15" r:id="rId5"/>
-    <sheet name="マップ移動" sheetId="9" r:id="rId6"/>
-    <sheet name="コントローラー" sheetId="10" r:id="rId7"/>
-    <sheet name="時の流れ" sheetId="8" r:id="rId8"/>
-    <sheet name="プレイヤーに対するアクション表" sheetId="13" r:id="rId9"/>
-    <sheet name="動物に対するアクション表" sheetId="11" r:id="rId10"/>
+    <sheet name="目次" sheetId="16" r:id="rId1"/>
+    <sheet name="プレイヤー" sheetId="4" r:id="rId2"/>
+    <sheet name="タイトル" sheetId="6" r:id="rId3"/>
+    <sheet name="ステージセレクト" sheetId="5" r:id="rId4"/>
+    <sheet name="ゲームスタート" sheetId="17" r:id="rId5"/>
+    <sheet name="リザルト" sheetId="14" r:id="rId6"/>
+    <sheet name="ゲームオーバー" sheetId="15" r:id="rId7"/>
+    <sheet name="マップ移動" sheetId="9" r:id="rId8"/>
+    <sheet name="コントローラー" sheetId="10" r:id="rId9"/>
+    <sheet name="時の流れ" sheetId="8" r:id="rId10"/>
+    <sheet name="プレイヤーに対するアクション表" sheetId="13" r:id="rId11"/>
+    <sheet name="動物に対するアクション表" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>ステージセレクト</t>
     <phoneticPr fontId="1"/>
@@ -1170,6 +1172,171 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目次</t>
+    <rPh sb="0" eb="2">
+      <t>モクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントローラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時の流れ</t>
+    <rPh sb="0" eb="1">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目次へ戻る</t>
+    <rPh sb="0" eb="2">
+      <t>モクジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反応なし</t>
+    <rPh sb="0" eb="2">
+      <t>ハンノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームスタート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームスタート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステージを選択し、シーンが切り替わり次第、プレイヤーは自由にカメラを動かすことができる</t>
+  </si>
+  <si>
+    <t>・この時、プレイヤーは移動不可で動物は通常通り徘徊。</t>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>カメラの移動はLボタンを押したときの移動と同じ</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・画面には「PRESS START」と表示。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>タイトルと同じく点滅を行う</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・ボタンの処理も</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>タイトルと同じ</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1178,7 +1345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,6 +1395,59 @@
       <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1392,7 +1612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1462,13 +1682,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1910,6 +2151,310 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="762000"/>
+          <a:ext cx="2381250" cy="2419349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>568379</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>96890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>174572</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>65033</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2700000">
+          <a:off x="568379" y="1135115"/>
+          <a:ext cx="1663593" cy="1663593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="1133474"/>
+          <a:ext cx="1400175" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>ステージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="2714624"/>
+          <a:ext cx="1733550" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
+            <a:t>PRESS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
+            <a:t>START</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="723899"/>
+          <a:ext cx="723900" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -2097,7 +2642,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2571,7 +3116,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2630,7 +3175,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2679,7 +3224,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3731,680 +4276,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A4:B4" location="プレイヤー!A1" display="プレイヤー"/>
+    <hyperlink ref="A5" location="タイトル!A1" display="タイトル"/>
+    <hyperlink ref="A6:B6" location="ステージセレクト!A1" display="ステージセレクト"/>
+    <hyperlink ref="A8" location="リザルト!A1" display="リザルト"/>
+    <hyperlink ref="A9:B9" location="ゲームオーバー!A1" display="ゲームオーバー"/>
+    <hyperlink ref="A10:B10" location="マップ移動!A1" display="マップ移動"/>
+    <hyperlink ref="A11:B11" location="コントローラー!A1" display="コントローラー"/>
+    <hyperlink ref="A12" location="時の流れ!A1" display="時の流れ"/>
+    <hyperlink ref="A13:D13" location="プレイヤーに対するアクション表!A1" display="プレイヤーに対するアクション表"/>
+    <hyperlink ref="A14:C14" location="動物に対するアクション表!A1" display="動物に対するアクション表"/>
+    <hyperlink ref="A7:B7" location="ステージセレクト!A1" display="ステージセレクト"/>
+    <hyperlink ref="A7:C7" location="ゲームスタート!A1" display="ゲームスタート"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J14"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="4" max="9" width="22.75" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="E4" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D6" s="9"/>
-      <c r="E6" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D9" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="D14" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H8"/>
+  <dimension ref="A2:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H8" t="s">
-        <v>20</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="G2:H2" location="目次!A1" display="目次へ戻る"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="1:21" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="21" x14ac:dyDescent="0.4">
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="H6" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="H7" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="U7" s="25"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="H8" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="H9" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-    </row>
-    <row r="11" spans="1:21" ht="21" x14ac:dyDescent="0.4">
-      <c r="H11" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="H13" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="H14" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="H15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H9:R9"/>
-    <mergeCell ref="H13:R13"/>
-    <mergeCell ref="H14:P14"/>
-    <mergeCell ref="H6:Q6"/>
-    <mergeCell ref="H7:S7"/>
-    <mergeCell ref="H8:O8"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="T7" location="リザルト!A1" display="リザルト参考"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="H5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="1:1" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4418,6 +4474,10 @@
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="E2" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="29"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D4" s="16" t="s">
@@ -4577,8 +4637,794 @@
       <c r="J12" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E2:F2" location="目次!A1" display="目次へ戻る"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="9" width="22.75" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="E4" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="9"/>
+      <c r="E6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F2:G2" location="目次!A1" display="目次へ戻る"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D2:E2" location="目次!A1" display="目次へ戻る"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D2:E2" location="目次!A1" display="目次へ戻る"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E2:F2" location="目次!A1" display="目次へ戻る"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E7" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E7:N7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E2:F2" location="目次!A1" display="目次へ戻る"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D2:E2" location="目次!A1" display="目次へ戻る"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:U15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:21" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="4" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H6" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H7" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" s="23"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H8" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H9" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+    </row>
+    <row r="11" spans="1:21" ht="21" x14ac:dyDescent="0.4">
+      <c r="H11" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H13" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H14" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H9:R9"/>
+    <mergeCell ref="H13:R13"/>
+    <mergeCell ref="H14:P14"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="H7:S7"/>
+    <mergeCell ref="H8:O8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="T7" location="リザルト!A1" display="リザルト参考"/>
+    <hyperlink ref="E2:F2" location="目次!A1" display="目次へ戻る"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D2:E2" location="目次!A1" display="目次へ戻る"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E2:F2" location="目次!A1" display="目次へ戻る"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>